--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_2_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>6.111804395914078e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>6.111804395914078e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55062.78362918759</v>
+        <v>3850882.397597509</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55062.78362918759</v>
+        <v>3850882.397597509</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494370764.077965</v>
+        <v>57220263.45451048</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13250.89670633727</v>
+        <v>1261868.128012885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26305.45820166781</v>
+        <v>2489760.742337164</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39360.01969699835</v>
+        <v>3717653.356661445</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54996.17080459324</v>
+        <v>4743887.953046012</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69412.24787817588</v>
+        <v>5898007.094364197</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83828.32495175852</v>
+        <v>7052126.235682378</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98244.40202534116</v>
+        <v>8206245.377000557</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112660.4790989239</v>
+        <v>9360364.518318737</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128296.6302065188</v>
+        <v>10386599.11470329</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142726.3452045794</v>
+        <v>11539637.08912027</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157142.4222781621</v>
+        <v>12693756.23043845</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171558.4993517448</v>
+        <v>13847875.37175663</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185974.5764253275</v>
+        <v>15001994.51307483</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200404.2914233881</v>
+        <v>16155032.48749182</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217844.4547977158</v>
+        <v>16950520.59348977</v>
       </c>
     </row>
   </sheetData>
